--- a/Code/Results/Cases/Case_2_140/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_140/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.26572765355659</v>
+        <v>21.61833895679673</v>
       </c>
       <c r="C2">
-        <v>18.07066530106489</v>
+        <v>11.00307491705109</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.24068647476572</v>
+        <v>8.753575233141857</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.095506500572021</v>
+        <v>3.717455631414918</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.79539640758757</v>
+        <v>31.72974506443047</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.478352579510566</v>
+        <v>10.36044593240418</v>
       </c>
       <c r="M2">
-        <v>14.18370459192823</v>
+        <v>18.02951372230606</v>
       </c>
       <c r="N2">
-        <v>13.63643255637585</v>
+        <v>20.68390637100179</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.72683772421201</v>
+        <v>21.24929000690279</v>
       </c>
       <c r="C3">
-        <v>16.74597994750154</v>
+        <v>10.48119012462744</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.101651055310009</v>
+        <v>8.720277766007317</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.107402271579474</v>
+        <v>3.721575550762634</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.38813353333357</v>
+        <v>31.75057189724588</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.395316440895325</v>
+        <v>10.37254423197175</v>
       </c>
       <c r="M3">
-        <v>13.58189208536006</v>
+        <v>17.9675965194679</v>
       </c>
       <c r="N3">
-        <v>13.90862785239687</v>
+        <v>20.7552497753965</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.74938494889818</v>
+        <v>21.02601959035778</v>
       </c>
       <c r="C4">
-        <v>15.89475057192018</v>
+        <v>10.15076198695662</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.015934657940883</v>
+        <v>8.699321696015588</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.114854500287752</v>
+        <v>3.724234482482873</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.1619066196036</v>
+        <v>31.77094388867346</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.347847969366632</v>
+        <v>10.38155955485733</v>
       </c>
       <c r="M4">
-        <v>13.21079212515956</v>
+        <v>17.93358872023693</v>
       </c>
       <c r="N4">
-        <v>14.07914718716994</v>
+        <v>20.80109839170383</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.34304994432799</v>
+        <v>20.93599781220204</v>
       </c>
       <c r="C5">
-        <v>15.53814902205075</v>
+        <v>10.01380894429601</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.980887870096536</v>
+        <v>8.690653368354202</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.11793188234893</v>
+        <v>3.725350658260761</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.07546158071144</v>
+        <v>31.78114494873324</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.329370654346904</v>
+        <v>10.38563229376242</v>
       </c>
       <c r="M5">
-        <v>13.05932332882671</v>
+        <v>17.92074723877994</v>
       </c>
       <c r="N5">
-        <v>14.1495134218394</v>
+        <v>20.8202969175689</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.27510111098146</v>
+        <v>20.92111157509383</v>
       </c>
       <c r="C6">
-        <v>15.47834324884568</v>
+        <v>9.99093577845054</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.975060562731083</v>
+        <v>8.68920623462922</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.118445418344336</v>
+        <v>3.725537973554885</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.0614470409294</v>
+        <v>31.78295329580638</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.326354326256972</v>
+        <v>10.38633265800336</v>
       </c>
       <c r="M6">
-        <v>13.03416249947423</v>
+        <v>17.91867657521113</v>
       </c>
       <c r="N6">
-        <v>14.16125148664822</v>
+        <v>20.82351594280936</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.74393712891432</v>
+        <v>21.02480146138648</v>
       </c>
       <c r="C7">
-        <v>15.88998091521252</v>
+        <v>10.14892400586205</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.015462512390838</v>
+        <v>8.699205312398629</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.114895834665438</v>
+        <v>3.724249403293275</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.16071786456489</v>
+        <v>31.77107378466172</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.347595292831343</v>
+        <v>10.38161286623832</v>
       </c>
       <c r="M7">
-        <v>13.2087501194679</v>
+        <v>17.93341140725801</v>
       </c>
       <c r="N7">
-        <v>14.08009258046942</v>
+        <v>20.80135522392104</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.74195502567863</v>
+        <v>21.49047620792915</v>
       </c>
       <c r="C8">
-        <v>17.62164838700542</v>
+        <v>10.82531967089429</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.19280030321059</v>
+        <v>8.742200386213575</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.099579472695796</v>
+        <v>3.718849424949421</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.64987613305004</v>
+        <v>31.7353475945878</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.448981238690489</v>
+        <v>10.36428800496477</v>
       </c>
       <c r="M8">
-        <v>13.97661299879847</v>
+        <v>18.00733805295549</v>
       </c>
       <c r="N8">
-        <v>13.72959709375082</v>
+        <v>20.7080820530516</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.53504900371671</v>
+        <v>22.42450860264021</v>
       </c>
       <c r="C9">
-        <v>20.72698507196417</v>
+        <v>12.06464558629175</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.539393291015418</v>
+        <v>8.82245870249514</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.070555170943527</v>
+        <v>3.709279970806527</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.80943003586002</v>
+        <v>31.7257815342192</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.676531899932037</v>
+        <v>10.3429095317369</v>
       </c>
       <c r="M9">
-        <v>15.46459553447244</v>
+        <v>18.18368846357689</v>
       </c>
       <c r="N9">
-        <v>13.06807074001433</v>
+        <v>20.54134107414082</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.24684256451593</v>
+        <v>23.11608663681966</v>
       </c>
       <c r="C10">
-        <v>22.84721700401561</v>
+        <v>12.91339670399424</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.796060854921783</v>
+        <v>8.878958819246673</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.049587928977565</v>
+        <v>3.702862738942672</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.79949099786046</v>
+        <v>31.75601261872514</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.862516539235713</v>
+        <v>10.33488476303186</v>
       </c>
       <c r="M10">
-        <v>16.63037719084984</v>
+        <v>18.33173110151102</v>
       </c>
       <c r="N10">
-        <v>12.59640523945981</v>
+        <v>20.42862548354468</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.43841795667347</v>
+        <v>23.43035241092029</v>
       </c>
       <c r="C11">
-        <v>23.78086995789383</v>
+        <v>13.28470839503007</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.914048351702919</v>
+        <v>8.904128233285231</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.040059106432383</v>
+        <v>3.700074800369656</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.28370876447214</v>
+        <v>31.77791850831942</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.951546493495344</v>
+        <v>10.33290154261173</v>
       </c>
       <c r="M11">
-        <v>17.28793692899531</v>
+        <v>18.40293084264417</v>
       </c>
       <c r="N11">
-        <v>12.38474038919722</v>
+        <v>20.37945981057956</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.88397212906597</v>
+        <v>23.54918748270173</v>
       </c>
       <c r="C12">
-        <v>24.13038320294501</v>
+        <v>13.42309631377706</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.958984990091484</v>
+        <v>8.913582628154694</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.036445507089548</v>
+        <v>3.699037823178972</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.4722925673674</v>
+        <v>31.78738953276831</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.985929874597669</v>
+        <v>10.33239008940174</v>
       </c>
       <c r="M12">
-        <v>17.53355607988257</v>
+        <v>18.4304314200303</v>
       </c>
       <c r="N12">
-        <v>12.30499839573567</v>
+        <v>20.36114440407108</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.78825953054952</v>
+        <v>23.5236037013353</v>
       </c>
       <c r="C13">
-        <v>24.05528207902519</v>
+        <v>13.39339203975811</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.949294180238985</v>
+        <v>8.911549868715305</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.03722410867213</v>
+        <v>3.699260322640221</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.43143927009483</v>
+        <v>31.78529744580004</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.97849441187004</v>
+        <v>10.33248959008299</v>
       </c>
       <c r="M13">
-        <v>17.48080411360433</v>
+        <v>18.42448497218884</v>
       </c>
       <c r="N13">
-        <v>12.3221539686864</v>
+        <v>20.36507550920118</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.47518520661314</v>
+        <v>23.44013314406843</v>
       </c>
       <c r="C14">
-        <v>23.8097031394108</v>
+        <v>13.29613861700986</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.91773963989559</v>
+        <v>8.904907590144887</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.039761959618464</v>
+        <v>3.699989112476378</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.29911681795426</v>
+        <v>31.77867411660802</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.954361599078346</v>
+        <v>10.33285466557767</v>
       </c>
       <c r="M14">
-        <v>17.30821056019724</v>
+        <v>18.40518262558179</v>
       </c>
       <c r="N14">
-        <v>12.37817172960222</v>
+        <v>20.37794693128791</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.2826920645771</v>
+        <v>23.38897926486915</v>
       </c>
       <c r="C15">
-        <v>23.65876541150394</v>
+        <v>13.23627651624429</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.898447748962706</v>
+        <v>8.900829008924038</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.041315572383989</v>
+        <v>3.700437955996493</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.21875681196174</v>
+        <v>31.77477033147576</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.939667867334985</v>
+        <v>10.33310947382482</v>
       </c>
       <c r="M15">
-        <v>17.20205865150695</v>
+        <v>18.39342907132446</v>
       </c>
       <c r="N15">
-        <v>12.41253773427496</v>
+        <v>20.38587043075691</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.16815503152161</v>
+        <v>23.09553130366879</v>
       </c>
       <c r="C16">
-        <v>22.78561233644321</v>
+        <v>12.88882468983609</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.788381361292882</v>
+        <v>8.877303209280942</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.050210306049009</v>
+        <v>3.703047568527011</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.76855641192934</v>
+        <v>31.75474539084215</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.856789971261222</v>
+        <v>10.33504790555706</v>
       </c>
       <c r="M16">
-        <v>16.58691724369073</v>
+        <v>18.32715428918191</v>
       </c>
       <c r="N16">
-        <v>12.61029563331826</v>
+        <v>20.43188095512258</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.47390312571348</v>
+        <v>22.9153358513931</v>
       </c>
       <c r="C17">
-        <v>22.24232385840177</v>
+        <v>12.67181494703815</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.721226483655489</v>
+        <v>8.86273436438986</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.055664926376965</v>
+        <v>3.704682019339776</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.50127778723237</v>
+        <v>31.74455171751099</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.807102181189947</v>
+        <v>10.33666398246482</v>
       </c>
       <c r="M17">
-        <v>16.2308194768212</v>
+        <v>18.28747334214935</v>
       </c>
       <c r="N17">
-        <v>12.73234889471115</v>
+        <v>20.46064660912253</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.07060523046467</v>
+        <v>22.81166753930573</v>
       </c>
       <c r="C18">
-        <v>21.92690814145265</v>
+        <v>12.54560909261217</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.68271070639556</v>
+        <v>8.854304609497209</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.058803598372457</v>
+        <v>3.705634477537492</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.35070720404763</v>
+        <v>31.7394559130079</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.778937219304908</v>
+        <v>10.33775045739746</v>
       </c>
       <c r="M18">
-        <v>16.06952792629994</v>
+        <v>18.26501369238949</v>
       </c>
       <c r="N18">
-        <v>12.8028233622828</v>
+        <v>20.47739042397224</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.93336112765187</v>
+        <v>22.77656679691796</v>
       </c>
       <c r="C19">
-        <v>21.81959930811156</v>
+        <v>12.50264273860912</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.669686592021645</v>
+        <v>8.851441830774796</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.059866710490569</v>
+        <v>3.705959091086715</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.30025939616091</v>
+        <v>31.73786223413779</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.769471257699979</v>
+        <v>10.33814528041385</v>
       </c>
       <c r="M19">
-        <v>16.01486041731518</v>
+        <v>18.25747217721625</v>
       </c>
       <c r="N19">
-        <v>12.82673196699784</v>
+        <v>20.4830937196701</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.54821710083338</v>
+        <v>22.93452141694771</v>
       </c>
       <c r="C20">
-        <v>22.30045845617327</v>
+        <v>12.69506033947803</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.72836332131306</v>
+        <v>8.864290432907026</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>2.055084180884711</v>
+        <v>3.704506750404434</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.52940047159338</v>
+        <v>31.74555740920563</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.812348447156968</v>
+        <v>10.33647570579932</v>
       </c>
       <c r="M20">
-        <v>16.26064394949581</v>
+        <v>18.29165990593923</v>
       </c>
       <c r="N20">
-        <v>12.71932797061866</v>
+        <v>20.45756391018433</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.56729327366263</v>
+        <v>23.4646560478722</v>
       </c>
       <c r="C21">
-        <v>23.88194185963663</v>
+        <v>13.32476521232174</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.927000267396853</v>
+        <v>8.906860671264685</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>2.039016730769464</v>
+        <v>3.699774541235019</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.33783835387933</v>
+        <v>31.78058761879524</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.961431517753145</v>
+        <v>10.33274093477928</v>
       </c>
       <c r="M21">
-        <v>17.35899532856486</v>
+        <v>18.41083769812473</v>
       </c>
       <c r="N21">
-        <v>12.36170679966753</v>
+        <v>20.37415807674754</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.85405378519803</v>
+        <v>23.81008250476197</v>
       </c>
       <c r="C22">
-        <v>24.89220615928561</v>
+        <v>13.72334274892939</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.058370403714603</v>
+        <v>8.934235573978892</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>2.028481383104427</v>
+        <v>3.696791027564238</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.89683490203268</v>
+        <v>31.81033578295263</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.062789831117305</v>
+        <v>10.33169617158703</v>
       </c>
       <c r="M22">
-        <v>18.06788453481856</v>
+        <v>18.49185990324279</v>
       </c>
       <c r="N22">
-        <v>12.13038109122873</v>
+        <v>20.32141081371033</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.17014689136298</v>
+        <v>23.62585676755281</v>
       </c>
       <c r="C23">
-        <v>24.35499737356172</v>
+        <v>13.51182805085805</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.988082962672045</v>
+        <v>8.91966602776475</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>2.034109875194706</v>
+        <v>3.698373429025232</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.59555370124546</v>
+        <v>31.79383068360403</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.008321122247661</v>
+        <v>10.33212612391141</v>
       </c>
       <c r="M23">
-        <v>17.69124544462535</v>
+        <v>18.44833553355692</v>
       </c>
       <c r="N23">
-        <v>12.25362341837761</v>
+        <v>20.34940191659071</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.51463274762799</v>
+        <v>22.92584783628895</v>
       </c>
       <c r="C24">
-        <v>22.27418540198353</v>
+        <v>12.6845555882658</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.725136474886957</v>
+        <v>8.863587102308164</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>2.055346726910538</v>
+        <v>3.70458594964029</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.51667660302703</v>
+        <v>31.74510035446024</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.809975363064693</v>
+        <v>10.33656033549025</v>
       </c>
       <c r="M24">
-        <v>16.2471615588187</v>
+        <v>18.28976605835287</v>
       </c>
       <c r="N24">
-        <v>12.72521378163562</v>
+        <v>20.45895695649622</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.49699298440803</v>
+        <v>22.17036479596043</v>
       </c>
       <c r="C25">
-        <v>19.91648796188669</v>
+        <v>11.739686020333</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.445503422745085</v>
+        <v>8.801180124788512</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>2.078323667101032</v>
+        <v>3.711760435559823</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.47268619105717</v>
+        <v>31.72185017593574</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.611772559850279</v>
+        <v>10.34734389423454</v>
       </c>
       <c r="M25">
-        <v>15.06455275801293</v>
+        <v>18.13268452931248</v>
       </c>
       <c r="N25">
-        <v>13.24442205552412</v>
+        <v>20.58472512660822</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_140/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_140/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.61833895679673</v>
+        <v>24.2657276535566</v>
       </c>
       <c r="C2">
-        <v>11.00307491705109</v>
+        <v>18.07066530106488</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.753575233141857</v>
+        <v>6.240686474765724</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.717455631414918</v>
+        <v>2.095506500572025</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.72974506443047</v>
+        <v>23.79539640758766</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.36044593240418</v>
+        <v>6.478352579510556</v>
       </c>
       <c r="M2">
-        <v>18.02951372230606</v>
+        <v>14.18370459192825</v>
       </c>
       <c r="N2">
-        <v>20.68390637100179</v>
+        <v>13.63643255637589</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.24929000690279</v>
+        <v>22.72683772421204</v>
       </c>
       <c r="C3">
-        <v>10.48119012462744</v>
+        <v>16.74597994750169</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.720277766007317</v>
+        <v>6.101651055310337</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.721575550762634</v>
+        <v>2.107402271580009</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.75057189724588</v>
+        <v>23.38813353333358</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.37254423197175</v>
+        <v>6.395316440895418</v>
       </c>
       <c r="M3">
-        <v>17.9675965194679</v>
+        <v>13.5818920853601</v>
       </c>
       <c r="N3">
-        <v>20.7552497753965</v>
+        <v>13.90862785239681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.02601959035778</v>
+        <v>21.7493849488982</v>
       </c>
       <c r="C4">
-        <v>10.15076198695662</v>
+        <v>15.89475057192022</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.699321696015588</v>
+        <v>6.015934657940885</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.724234482482873</v>
+        <v>2.114854500287354</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.77094388867346</v>
+        <v>23.16190661960373</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.38155955485733</v>
+        <v>6.347847969366656</v>
       </c>
       <c r="M4">
-        <v>17.93358872023693</v>
+        <v>13.21079212515959</v>
       </c>
       <c r="N4">
-        <v>20.80109839170383</v>
+        <v>14.07914718716998</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.93599781220204</v>
+        <v>21.34304994432804</v>
       </c>
       <c r="C5">
-        <v>10.01380894429601</v>
+        <v>15.53814902205065</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.690653368354202</v>
+        <v>5.980887870096466</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.725350658260761</v>
+        <v>2.117931882348932</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.78114494873324</v>
+        <v>23.07546158071166</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.38563229376242</v>
+        <v>6.329370654346908</v>
       </c>
       <c r="M5">
-        <v>17.92074723877994</v>
+        <v>13.05932332882677</v>
       </c>
       <c r="N5">
-        <v>20.8202969175689</v>
+        <v>14.14951342183953</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.92111157509383</v>
+        <v>21.27510111098151</v>
       </c>
       <c r="C6">
-        <v>9.99093577845054</v>
+        <v>15.4783432488458</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.68920623462922</v>
+        <v>5.975060562731021</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.725537973554885</v>
+        <v>2.118445418344072</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.78295329580638</v>
+        <v>23.0614470409294</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.38633265800336</v>
+        <v>6.326354326256944</v>
       </c>
       <c r="M6">
-        <v>17.91867657521113</v>
+        <v>13.03416249947423</v>
       </c>
       <c r="N6">
-        <v>20.82351594280936</v>
+        <v>14.16125148664819</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.02480146138648</v>
+        <v>21.74393712891431</v>
       </c>
       <c r="C7">
-        <v>10.14892400586205</v>
+        <v>15.88998091521249</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.699205312398629</v>
+        <v>6.015462512390711</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.724249403293275</v>
+        <v>2.114895834665437</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.77107378466172</v>
+        <v>23.16071786456485</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.38161286623832</v>
+        <v>6.347595292831282</v>
       </c>
       <c r="M7">
-        <v>17.93341140725801</v>
+        <v>13.20875011946787</v>
       </c>
       <c r="N7">
-        <v>20.80135522392104</v>
+        <v>14.08009258046939</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.49047620792915</v>
+        <v>23.74195502567863</v>
       </c>
       <c r="C8">
-        <v>10.82531967089429</v>
+        <v>17.62164838700552</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.742200386213575</v>
+        <v>6.192800303210593</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.718849424949421</v>
+        <v>2.099579472695929</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.7353475945878</v>
+        <v>23.64987613304994</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.36428800496477</v>
+        <v>6.448981238690424</v>
       </c>
       <c r="M8">
-        <v>18.00733805295549</v>
+        <v>13.97661299879842</v>
       </c>
       <c r="N8">
-        <v>20.7080820530516</v>
+        <v>13.72959709375076</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.42450860264021</v>
+        <v>27.53504900371673</v>
       </c>
       <c r="C9">
-        <v>12.06464558629175</v>
+        <v>20.72698507196429</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.82245870249514</v>
+        <v>6.539393291015477</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.709279970806527</v>
+        <v>2.070555170943928</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31.7257815342192</v>
+        <v>24.80943003585998</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.3429095317369</v>
+        <v>6.67653189993202</v>
       </c>
       <c r="M9">
-        <v>18.18368846357689</v>
+        <v>15.46459553447244</v>
       </c>
       <c r="N9">
-        <v>20.54134107414082</v>
+        <v>13.0680707400143</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.11608663681966</v>
+        <v>30.24684256451583</v>
       </c>
       <c r="C10">
-        <v>12.91339670399424</v>
+        <v>22.84721700401551</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.878958819246673</v>
+        <v>6.796060854921718</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>3.702862738942672</v>
+        <v>2.049587928977703</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.75601261872514</v>
+        <v>25.79949099786051</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.33488476303186</v>
+        <v>6.862516539235695</v>
       </c>
       <c r="M10">
-        <v>18.33173110151102</v>
+        <v>16.63037719084979</v>
       </c>
       <c r="N10">
-        <v>20.42862548354468</v>
+        <v>12.59640523945986</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.43035241092029</v>
+        <v>31.43841795667356</v>
       </c>
       <c r="C11">
-        <v>13.28470839503007</v>
+        <v>23.78086995789397</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.904128233285231</v>
+        <v>6.914048351703045</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>3.700074800369656</v>
+        <v>2.040059106432648</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.77791850831942</v>
+        <v>26.28370876447212</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.33290154261173</v>
+        <v>6.951546493495312</v>
       </c>
       <c r="M11">
-        <v>18.40293084264417</v>
+        <v>17.28793692899539</v>
       </c>
       <c r="N11">
-        <v>20.37945981057956</v>
+        <v>12.38474038919717</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.54918748270173</v>
+        <v>31.88397212906586</v>
       </c>
       <c r="C12">
-        <v>13.42309631377706</v>
+        <v>24.13038320294487</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.913582628154694</v>
+        <v>6.958984990091484</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.699037823178972</v>
+        <v>2.036445507089683</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.78738953276831</v>
+        <v>26.47229256736748</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.33239008940174</v>
+        <v>6.985929874597684</v>
       </c>
       <c r="M12">
-        <v>18.4304314200303</v>
+        <v>17.53355607988248</v>
       </c>
       <c r="N12">
-        <v>20.36114440407108</v>
+        <v>12.30499839573575</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.5236037013353</v>
+        <v>31.7882595305495</v>
       </c>
       <c r="C13">
-        <v>13.39339203975811</v>
+        <v>24.05528207902518</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.911549868715305</v>
+        <v>6.949294180238982</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.699260322640221</v>
+        <v>2.037224108672135</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.78529744580004</v>
+        <v>26.43143927009483</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.33248959008299</v>
+        <v>6.97849441186998</v>
       </c>
       <c r="M13">
-        <v>18.42448497218884</v>
+        <v>17.48080411360432</v>
       </c>
       <c r="N13">
-        <v>20.36507550920118</v>
+        <v>12.32215396868642</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.44013314406843</v>
+        <v>31.47518520661317</v>
       </c>
       <c r="C14">
-        <v>13.29613861700986</v>
+        <v>23.80970313941079</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.904907590144887</v>
+        <v>6.917739639895522</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>3.699989112476378</v>
+        <v>2.039761959618602</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.77867411660802</v>
+        <v>26.29911681795416</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.33285466557767</v>
+        <v>6.954361599078314</v>
       </c>
       <c r="M14">
-        <v>18.40518262558179</v>
+        <v>17.30821056019727</v>
       </c>
       <c r="N14">
-        <v>20.37794693128791</v>
+        <v>12.37817172960209</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.38897926486915</v>
+        <v>31.28269206457716</v>
       </c>
       <c r="C15">
-        <v>13.23627651624429</v>
+        <v>23.65876541150402</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.900829008924038</v>
+        <v>6.898447748962713</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>3.700437955996493</v>
+        <v>2.041315572383847</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.77477033147576</v>
+        <v>26.2187568119618</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.33310947382482</v>
+        <v>6.939667867334951</v>
       </c>
       <c r="M15">
-        <v>18.39342907132446</v>
+        <v>17.20205865150699</v>
       </c>
       <c r="N15">
-        <v>20.38587043075691</v>
+        <v>12.412537734275</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.09553130366879</v>
+        <v>30.1681550315216</v>
       </c>
       <c r="C16">
-        <v>12.88882468983609</v>
+        <v>22.78561233644313</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.877303209280942</v>
+        <v>6.788381361292685</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.703047568527011</v>
+        <v>2.050210306048748</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.75474539084215</v>
+        <v>25.76855641192937</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.33504790555706</v>
+        <v>6.856789971261176</v>
       </c>
       <c r="M16">
-        <v>18.32715428918191</v>
+        <v>16.58691724369073</v>
       </c>
       <c r="N16">
-        <v>20.43188095512258</v>
+        <v>12.61029563331828</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.9153358513931</v>
+        <v>29.47390312571341</v>
       </c>
       <c r="C17">
-        <v>12.67181494703815</v>
+        <v>22.24232385840176</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.86273436438986</v>
+        <v>6.721226483655493</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>3.704682019339776</v>
+        <v>2.055664926376968</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.74455171751099</v>
+        <v>25.50127778723248</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.33666398246482</v>
+        <v>6.807102181189979</v>
       </c>
       <c r="M17">
-        <v>18.28747334214935</v>
+        <v>16.23081947682121</v>
       </c>
       <c r="N17">
-        <v>20.46064660912253</v>
+        <v>12.73234889471125</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.81166753930573</v>
+        <v>29.07060523046478</v>
       </c>
       <c r="C18">
-        <v>12.54560909261217</v>
+        <v>21.92690814145285</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.854304609497209</v>
+        <v>6.68271070639556</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>3.705634477537492</v>
+        <v>2.058803598372317</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.7394559130079</v>
+        <v>25.35070720404762</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.33775045739746</v>
+        <v>6.77893721930493</v>
       </c>
       <c r="M18">
-        <v>18.26501369238949</v>
+        <v>16.06952792629995</v>
       </c>
       <c r="N18">
-        <v>20.47739042397224</v>
+        <v>12.80282336228267</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.77656679691796</v>
+        <v>28.9333611276519</v>
       </c>
       <c r="C19">
-        <v>12.50264273860912</v>
+        <v>21.81959930811164</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.851441830774796</v>
+        <v>6.669686592021897</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415007</v>
       </c>
       <c r="G19">
-        <v>3.705959091086715</v>
+        <v>2.059866710490837</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.73786223413779</v>
+        <v>25.30025939616101</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.33814528041385</v>
+        <v>6.769471257699991</v>
       </c>
       <c r="M19">
-        <v>18.25747217721625</v>
+        <v>16.01486041731521</v>
       </c>
       <c r="N19">
-        <v>20.4830937196701</v>
+        <v>12.82673196699788</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.93452141694771</v>
+        <v>29.54821710083351</v>
       </c>
       <c r="C20">
-        <v>12.69506033947803</v>
+        <v>22.30045845617323</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.864290432907026</v>
+        <v>6.728363321312925</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>3.704506750404434</v>
+        <v>2.05508418088458</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.74555740920563</v>
+        <v>25.5294004715933</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.33647570579932</v>
+        <v>6.812348447156952</v>
       </c>
       <c r="M20">
-        <v>18.29165990593923</v>
+        <v>16.2606439494958</v>
       </c>
       <c r="N20">
-        <v>20.45756391018433</v>
+        <v>12.71932797061858</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.4646560478722</v>
+        <v>31.56729327366271</v>
       </c>
       <c r="C21">
-        <v>13.32476521232174</v>
+        <v>23.88194185963652</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.906860671264685</v>
+        <v>6.927000267396913</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>3.699774541235019</v>
+        <v>2.03901673076906</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.78058761879524</v>
+        <v>26.33783835387934</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.33274093477928</v>
+        <v>6.961431517753162</v>
       </c>
       <c r="M21">
-        <v>18.41083769812473</v>
+        <v>17.35899532856489</v>
       </c>
       <c r="N21">
-        <v>20.37415807674754</v>
+        <v>12.36170679966751</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.81008250476197</v>
+        <v>32.85405378519803</v>
       </c>
       <c r="C22">
-        <v>13.72334274892939</v>
+        <v>24.89220615928562</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.934235573978892</v>
+        <v>7.0583704037146</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>3.696791027564238</v>
+        <v>2.028481383104298</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>31.81033578295263</v>
+        <v>26.89683490203275</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.33169617158703</v>
+        <v>7.062789831117334</v>
       </c>
       <c r="M22">
-        <v>18.49185990324279</v>
+        <v>18.06788453481856</v>
       </c>
       <c r="N22">
-        <v>20.32141081371033</v>
+        <v>12.13038109122875</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.62585676755281</v>
+        <v>32.17014689136303</v>
       </c>
       <c r="C23">
-        <v>13.51182805085805</v>
+        <v>24.35499737356157</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.91966602776475</v>
+        <v>6.988082962672109</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>3.698373429025232</v>
+        <v>2.034109875195237</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.79383068360403</v>
+        <v>26.59555370124553</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.33212612391141</v>
+        <v>7.008321122247736</v>
       </c>
       <c r="M23">
-        <v>18.44833553355692</v>
+        <v>17.69124544462534</v>
       </c>
       <c r="N23">
-        <v>20.34940191659071</v>
+        <v>12.25362341837765</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.92584783628895</v>
+        <v>29.51463274762799</v>
       </c>
       <c r="C24">
-        <v>12.6845555882658</v>
+        <v>22.27418540198351</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.863587102308164</v>
+        <v>6.725136474886892</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575441</v>
       </c>
       <c r="G24">
-        <v>3.70458594964029</v>
+        <v>2.055346726910272</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.74510035446024</v>
+        <v>25.51667660302708</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.33656033549025</v>
+        <v>6.809975363064715</v>
       </c>
       <c r="M24">
-        <v>18.28976605835287</v>
+        <v>16.24716155881871</v>
       </c>
       <c r="N24">
-        <v>20.45895695649622</v>
+        <v>12.72521378163563</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.17036479596043</v>
+        <v>26.49699298440814</v>
       </c>
       <c r="C25">
-        <v>11.739686020333</v>
+        <v>19.91648796188688</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.801180124788512</v>
+        <v>6.445503422745212</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459126707</v>
       </c>
       <c r="G25">
-        <v>3.711760435559823</v>
+        <v>2.0783236671009</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.72185017593574</v>
+        <v>24.47268619105707</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.34734389423454</v>
+        <v>6.611772559850227</v>
       </c>
       <c r="M25">
-        <v>18.13268452931248</v>
+        <v>15.06455275801292</v>
       </c>
       <c r="N25">
-        <v>20.58472512660822</v>
+        <v>13.24442205552404</v>
       </c>
       <c r="O25">
         <v>0</v>
